--- a/data/trans_orig/P21D_2_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{662B11A8-3432-481E-820F-515A108D0242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8C3BBA1-A2B9-453C-88FE-7D8AD7C35BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9FAD1413-3178-406A-8AB5-F69DFA373218}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ACDC8990-94FB-4A1A-BA74-C30834F0E505}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,13 +77,13 @@
     <t>2,7%</t>
   </si>
   <si>
-    <t>10,34%</t>
+    <t>10,53%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>1,9%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>7,42%</t>
@@ -92,10 +92,10 @@
     <t>4,56%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>94,7%</t>
   </si>
   <si>
-    <t>89,66%</t>
+    <t>89,47%</t>
   </si>
   <si>
     <t>97,3%</t>
@@ -116,16 +116,16 @@
     <t>92,58%</t>
   </si>
   <si>
-    <t>98,1%</t>
+    <t>98,05%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,376 +137,376 @@
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>98,45%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A7075C-2038-4A88-A98D-E629F841A017}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E78744-299B-442D-955C-4676C4999657}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_2_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8C3BBA1-A2B9-453C-88FE-7D8AD7C35BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8CB548B-1E7A-40CD-B534-C0B4562EE433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ACDC8990-94FB-4A1A-BA74-C30834F0E505}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E32309C-F190-4CA1-9353-14538B5172FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E78744-299B-442D-955C-4676C4999657}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3D0ADE-FA64-4CF1-8D28-9C5E12A16DC9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_2_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8CB548B-1E7A-40CD-B534-C0B4562EE433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7794F26-A589-4FA8-99D8-E011636B4105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E32309C-F190-4CA1-9353-14538B5172FE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8C8C22E-8C75-44A3-90A7-48779E3CD08B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,13 +77,13 @@
     <t>2,7%</t>
   </si>
   <si>
-    <t>10,53%</t>
+    <t>10,34%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>1,9%</t>
   </si>
   <si>
     <t>7,42%</t>
@@ -92,10 +92,10 @@
     <t>4,56%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>94,7%</t>
   </si>
   <si>
-    <t>89,47%</t>
+    <t>89,66%</t>
   </si>
   <si>
     <t>97,3%</t>
@@ -116,16 +116,16 @@
     <t>92,58%</t>
   </si>
   <si>
-    <t>98,05%</t>
+    <t>98,1%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,376 +137,376 @@
     <t>3,37%</t>
   </si>
   <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,07%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>97,56%</t>
   </si>
   <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>98,89%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3D0ADE-FA64-4CF1-8D28-9C5E12A16DC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909CA939-E192-4CDB-9762-E535F535A95C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_2_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7794F26-A589-4FA8-99D8-E011636B4105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC98F11-3079-477F-A76C-64EE18F1624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8C8C22E-8C75-44A3-90A7-48779E3CD08B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FB18D11B-749D-4281-923D-444644141701}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="152">
   <si>
     <t>Población que, necesitando atención sanitaria dental, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>98,1%</t>
   </si>
   <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,379 +134,361 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>98,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909CA939-E192-4CDB-9762-E535F535A95C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173A5484-824C-461D-AA54-80676D2EFAB5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1042,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>6657</v>
+        <v>7775</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1057,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>4430</v>
+        <v>4782</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1072,7 +1054,7 @@
         <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>11087</v>
+        <v>12557</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1093,7 +1075,7 @@
         <v>141</v>
       </c>
       <c r="D5" s="7">
-        <v>118835</v>
+        <v>146491</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1108,7 +1090,7 @@
         <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>113093</v>
+        <v>121535</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1123,7 +1105,7 @@
         <v>359</v>
       </c>
       <c r="N5" s="7">
-        <v>231928</v>
+        <v>268026</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1144,7 +1126,7 @@
         <v>153</v>
       </c>
       <c r="D6" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1159,7 +1141,7 @@
         <v>233</v>
       </c>
       <c r="I6" s="7">
-        <v>117523</v>
+        <v>126317</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1174,7 +1156,7 @@
         <v>386</v>
       </c>
       <c r="N6" s="7">
-        <v>243015</v>
+        <v>280583</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1197,7 +1179,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>7115</v>
+        <v>6840</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1212,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>5644</v>
+        <v>5220</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1227,7 +1209,7 @@
         <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>12760</v>
+        <v>12061</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1248,7 +1230,7 @@
         <v>153</v>
       </c>
       <c r="D8" s="7">
-        <v>204158</v>
+        <v>204433</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1263,7 +1245,7 @@
         <v>319</v>
       </c>
       <c r="I8" s="7">
-        <v>249571</v>
+        <v>232061</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1278,7 +1260,7 @@
         <v>472</v>
       </c>
       <c r="N8" s="7">
-        <v>453728</v>
+        <v>436493</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1314,7 +1296,7 @@
         <v>326</v>
       </c>
       <c r="I9" s="7">
-        <v>255215</v>
+        <v>237281</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1329,7 +1311,7 @@
         <v>486</v>
       </c>
       <c r="N9" s="7">
-        <v>466488</v>
+        <v>448554</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1352,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1734</v>
+        <v>1693</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1367,31 +1349,31 @@
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>5236</v>
+        <v>4856</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>6970</v>
+        <v>6549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1403,7 +1385,7 @@
         <v>111</v>
       </c>
       <c r="D11" s="7">
-        <v>95930</v>
+        <v>93219</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -1418,28 +1400,28 @@
         <v>216</v>
       </c>
       <c r="I11" s="7">
-        <v>150030</v>
+        <v>140685</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>327</v>
       </c>
       <c r="N11" s="7">
-        <v>245960</v>
+        <v>233904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>66</v>
@@ -1454,7 +1436,7 @@
         <v>113</v>
       </c>
       <c r="D12" s="7">
-        <v>97664</v>
+        <v>94912</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1469,7 +1451,7 @@
         <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>155266</v>
+        <v>145541</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1484,7 +1466,7 @@
         <v>336</v>
       </c>
       <c r="N12" s="7">
-        <v>252930</v>
+        <v>240453</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1522,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1341</v>
+        <v>1242</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>70</v>
@@ -1537,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1341</v>
+        <v>1242</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>72</v>
@@ -1558,7 +1540,7 @@
         <v>131</v>
       </c>
       <c r="D14" s="7">
-        <v>147150</v>
+        <v>141377</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>61</v>
@@ -1573,7 +1555,7 @@
         <v>276</v>
       </c>
       <c r="I14" s="7">
-        <v>205820</v>
+        <v>245318</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>75</v>
@@ -1588,7 +1570,7 @@
         <v>407</v>
       </c>
       <c r="N14" s="7">
-        <v>352970</v>
+        <v>386695</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>77</v>
@@ -1609,7 +1591,7 @@
         <v>131</v>
       </c>
       <c r="D15" s="7">
-        <v>147150</v>
+        <v>141377</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1624,7 +1606,7 @@
         <v>278</v>
       </c>
       <c r="I15" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1639,7 +1621,7 @@
         <v>409</v>
       </c>
       <c r="N15" s="7">
-        <v>354311</v>
+        <v>387937</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1713,7 +1695,7 @@
         <v>108</v>
       </c>
       <c r="D17" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>61</v>
@@ -1728,7 +1710,7 @@
         <v>163</v>
       </c>
       <c r="I17" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>61</v>
@@ -1743,7 +1725,7 @@
         <v>271</v>
       </c>
       <c r="N17" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>61</v>
@@ -1764,7 +1746,7 @@
         <v>108</v>
       </c>
       <c r="D18" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1779,7 +1761,7 @@
         <v>163</v>
       </c>
       <c r="I18" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1794,7 +1776,7 @@
         <v>271</v>
       </c>
       <c r="N18" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1817,7 +1799,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>6591</v>
+        <v>6302</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>87</v>
@@ -1832,7 +1814,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="7">
-        <v>5020</v>
+        <v>4698</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>90</v>
@@ -1847,7 +1829,7 @@
         <v>18</v>
       </c>
       <c r="N19" s="7">
-        <v>11611</v>
+        <v>11001</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>93</v>
@@ -1868,7 +1850,7 @@
         <v>167</v>
       </c>
       <c r="D20" s="7">
-        <v>123518</v>
+        <v>119292</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>96</v>
@@ -1883,7 +1865,7 @@
         <v>192</v>
       </c>
       <c r="I20" s="7">
-        <v>114390</v>
+        <v>106254</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>99</v>
@@ -1898,7 +1880,7 @@
         <v>359</v>
       </c>
       <c r="N20" s="7">
-        <v>237907</v>
+        <v>225545</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>102</v>
@@ -1919,7 +1901,7 @@
         <v>177</v>
       </c>
       <c r="D21" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1934,7 +1916,7 @@
         <v>200</v>
       </c>
       <c r="I21" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1949,7 +1931,7 @@
         <v>377</v>
       </c>
       <c r="N21" s="7">
-        <v>249518</v>
+        <v>236546</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1972,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1122</v>
+        <v>1076</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>106</v>
@@ -1981,37 +1963,37 @@
         <v>52</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>6317</v>
+        <v>5966</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
       </c>
       <c r="N22" s="7">
-        <v>7438</v>
+        <v>7042</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,13 +2005,13 @@
         <v>284</v>
       </c>
       <c r="D23" s="7">
-        <v>310950</v>
+        <v>310660</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>61</v>
@@ -2038,31 +2020,31 @@
         <v>425</v>
       </c>
       <c r="I23" s="7">
-        <v>320359</v>
+        <v>299229</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>709</v>
       </c>
       <c r="N23" s="7">
-        <v>631310</v>
+        <v>609889</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,7 +2056,7 @@
         <v>285</v>
       </c>
       <c r="D24" s="7">
-        <v>312072</v>
+        <v>311736</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2089,7 +2071,7 @@
         <v>435</v>
       </c>
       <c r="I24" s="7">
-        <v>326676</v>
+        <v>305195</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2104,7 +2086,7 @@
         <v>720</v>
       </c>
       <c r="N24" s="7">
-        <v>638748</v>
+        <v>616931</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2118,7 +2100,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2127,46 +2109,46 @@
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>2173</v>
+        <v>1801</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>12380</v>
+        <v>9669</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
       </c>
       <c r="N25" s="7">
-        <v>14552</v>
+        <v>11469</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,13 +2160,13 @@
         <v>331</v>
       </c>
       <c r="D26" s="7">
-        <v>414557</v>
+        <v>552115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>61</v>
@@ -2193,31 +2175,31 @@
         <v>509</v>
       </c>
       <c r="I26" s="7">
-        <v>409725</v>
+        <v>339280</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>840</v>
       </c>
       <c r="N26" s="7">
-        <v>824283</v>
+        <v>891395</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,7 +2211,7 @@
         <v>333</v>
       </c>
       <c r="D27" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2244,7 +2226,7 @@
         <v>516</v>
       </c>
       <c r="I27" s="7">
-        <v>422105</v>
+        <v>348949</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2259,7 +2241,7 @@
         <v>849</v>
       </c>
       <c r="N27" s="7">
-        <v>838835</v>
+        <v>902864</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2282,46 +2264,46 @@
         <v>34</v>
       </c>
       <c r="D28" s="7">
-        <v>25391</v>
+        <v>25487</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
       </c>
       <c r="I28" s="7">
-        <v>40368</v>
+        <v>36433</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>90</v>
       </c>
       <c r="N28" s="7">
-        <v>65759</v>
+        <v>61921</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,46 +2315,46 @@
         <v>1426</v>
       </c>
       <c r="D29" s="7">
-        <v>1493140</v>
+        <v>1638291</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>2318</v>
       </c>
       <c r="I29" s="7">
-        <v>1642345</v>
+        <v>1555723</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>3744</v>
       </c>
       <c r="N29" s="7">
-        <v>3135485</v>
+        <v>3194013</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,7 +2366,7 @@
         <v>1460</v>
       </c>
       <c r="D30" s="7">
-        <v>1518531</v>
+        <v>1663778</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2399,7 +2381,7 @@
         <v>2374</v>
       </c>
       <c r="I30" s="7">
-        <v>1682713</v>
+        <v>1592156</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2414,7 +2396,7 @@
         <v>3834</v>
       </c>
       <c r="N30" s="7">
-        <v>3201244</v>
+        <v>3255934</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2428,7 +2410,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
